--- a/Windows/investigation_apres_attaque/excels/investigation_apres_attaque_sur_machine_window.xlsx
+++ b/Windows/investigation_apres_attaque/excels/investigation_apres_attaque_sur_machine_window.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logiciels\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\1-cybersecurite\2-rendu_activite\Windows\investigation_apres_attaque\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E908BD-EDA4-40CA-9279-A7EBD205D49A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A65B378-854D-4D4B-A90F-6403576B21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="2" r:id="rId1"/>
@@ -87,8 +87,38 @@
  - Panneau config --&gt; Compte utilisateur --&gt; Compteur utilisateur -&gt; Gestion compte</t>
   </si>
   <si>
+    <t xml:space="preserve"> - On a identifié la version de windows =&gt; windows server 2016
+ - Deux comptes administrateurs : Administrator et Jenny</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Windows Server 2016 propose différents services orientés serveur comme héberger un site web, la gestion de ressources entre différents utilisateurs et applications ou gérer la messagerie. Il peut être aussi utiliser en tant que services DHCP, déploiement d'OS, ou encore d'implémenter les services d'un Active Directory. Ce qui rend se serveur sensible et qui nécessite d'être sécurisé et administré au quotidien afin de détecter les problèmes qui peut corrompre tous le SI si l'attaquant le souhaite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Clé de registre corrompue pour l'exécution automatique d'un programme
+ - Présence d'un reverse shell qui donne la main sur le système
+ - Intégrité du système corrompue : modification des privilèges
+ - Mot de passe corrompue et connue par l'attaquant via l'outil mimikatz
+ - Ouverture d'un port 1337 qui est le point d'entré qui écoute tous les ports distant
+ - DNS poisonning qui a permis le téléversement d'un shell dédié et qui donne plus de privilège à l'attaquant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Tout d'abord l'administrateur à ouvert un site qui était héberger par l'attaquant, ce qui a déclenché le téléversement d'un shell.
+ - Lorsque le shell s'est exécuter chez la victime, l'attaquant eu temporairement la main pour commencer à corrompre le système
+ - Corruption du registre pour utiliser la commande net user qui renvoie son resultat dans un fichier permettant à l'attaquant d'avoir les informations des comptes existants à chaque démarrage et en tant que Guest qui avait les droits d'administrateur, il a fait de sort de modifier les privilèges.
+ - Mise en place d'un DNS poisonning qui fait que lorsqu'on cherche google.com, on attérit sur le serveur web de l'attaquant pour récupérer un shell
+ - L'attaquant à ouvert le port 1337 qui écoute tous les ports distant puis mis en place 2 tâches planifier, une pour garder la main sur le système via un reverse shell netcat et l'autre pour récupérer les mots de passe des personnes qui se connecte via mimikatz.
+ - Lorsque l'admin s'est reconnecté, ses informations se sont inscris dans un fichier txt que l'attaquant à récupérer pour se loggué en Administrateur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Vérifier les droits et privilèges de tous les comptes
+  - Supprimer les comptes inutilisés
+  - Toujours vérifier ses tâches planifiés et clé de registre pour les exécutions automatique
+  - Etablir des règles sur les différentes responsabilités concernant la gestion du serveur</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - On a vérifier qui s'est connecté en dernier grâce à l'event Viewer (avant que je me connecte en RDP)
- - On a vérifier quand la dernièer fois que l'utilisateur John s'est connecté grâce à la commande
+ - On a vérifier quand la dernière fois que l'utilisateur John s'est connecté grâce à la commande
  - Corruption clé registre pour démarrer automatiquement un programme qui déclenche netuser et envoi sa sortie dans un fichier
  - Planification de tâche malicieux qui déclence un reverse shell tous les jours à 16h55
  - Système compromis à partir du 03/02/2019 + Création d'un compte admin (Jenny)
@@ -98,36 +128,6 @@
  - DNS poisonning sur google.com
  - Téléversement d'un shell via le serveur web 76.32.97.132 et qui a pour extension .jsp
  - Ouverture du port local 1337 en TCP et qui ecoute tous les ports externes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - On a identifié la version de windows =&gt; windows server 2016
- - Deux comptes administrateurs : Administrator et Jenny</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Windows Server 2016 propose différents services orientés serveur comme héberger un site web, la gestion de ressources entre différents utilisateurs et applications ou gérer la messagerie. Il peut être aussi utiliser en tant que services DHCP, déploiement d'OS, ou encore d'implémenter les services d'un Active Directory. Ce qui rend se serveur sensible et qui nécessite d'être sécurisé et administré au quotidien afin de détecter les problèmes qui peut corrompre tous le SI si l'attaquant le souhaite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Clé de registre corrompue pour l'exécution automatique d'un programme
- - Présence d'un reverse shell qui donne la main sur le système
- - Intégrité du système corrompue : modification des privilèges
- - Mot de passe corrompue et connue par l'attaquant via l'outil mimikatz
- - Ouverture d'un port 1337 qui est le point d'entré qui écoute tous les ports distant
- - DNS poisonning qui a permis le téléversement d'un shell dédié et qui donne plus de privilège à l'attaquant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Tout d'abord l'administrateur à ouvert un site qui était héberger par l'attaquant, ce qui a déclenché le téléversement d'un shell.
- - Lorsque le shell s'est exécuter chez la victime, l'attaquant eu temporairement la main pour commencer à corrompre le système
- - Corruption du registre pour utiliser la commande net user qui renvoie son resultat dans un fichier permettant à l'attaquant d'avoir les informations des comptes existants à chaque démarrage et en tant que Guest qui avait les droits d'administrateur, il a fait de sort de modifier les privilèges.
- - Mise en place d'un DNS poisonning qui fait que lorsqu'on cherche google.com, on attérit sur le serveur web de l'attaquant pour récupérer un shell
- - L'attaquant à ouvert le port 1337 qui écoute tous les ports distant puis mis en place 2 tâches planifier, une pour garder la main sur le système via un reverse shell netcat et l'autre pour récupérer les mots de passe des personnes qui se connecte via mimikatz.
- - Lorsque l'admin s'est reconnecté, ses informations se sont inscris dans un fichier txt que l'attaquant à récupérer pour se loggué en Administrateur
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Vérifier les droits et privilèges de tous les comptes
-  - Supprimer les comptes inutilisés
-  - Toujours vérifier ses tâches planifiés et clé de registre pour les exécutions automatique
-  - Etablir des règles sur les différentes responsabilités concernant la gestion du serveur</t>
   </si>
 </sst>
 </file>
@@ -572,29 +572,29 @@
   <dimension ref="F7:G14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="92.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="7:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="7:7" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="7:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="7:7" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="7:7" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="7:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="7:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="7" t="s">
         <v>12</v>
       </c>
@@ -609,17 +609,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="146.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
     <col min="3" max="3" width="148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -630,29 +630,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -660,41 +660,41 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="238.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="238.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="245.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -710,44 +710,44 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
